--- a/medicine/Psychotrope/Gaétan_Picon_(industriel)/Gaétan_Picon_(industriel).xlsx
+++ b/medicine/Psychotrope/Gaétan_Picon_(industriel)/Gaétan_Picon_(industriel).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%A9tan_Picon_(industriel)</t>
+          <t>Gaétan_Picon_(industriel)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaétan Picon (Camporosso, 7 août 1809 - Marseille, 30 avril 1882[1]) est le fondateur de l'amer Picon, et l'arrière-grand-oncle du célèbre  essayiste et critique d'art français Gaëtan Picon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaétan Picon (Camporosso, 7 août 1809 - Marseille, 30 avril 1882) est le fondateur de l'amer Picon, et l'arrière-grand-oncle du célèbre  essayiste et critique d'art français Gaëtan Picon.
 En 1815, il quitte avec sa famille la Province de Gênes où ils étaient implantés pour Marseille. Là, le jeune Gaétan Picon effectua sa scolarité en tant qu’apprenti aux distilleries d’Aix-en-Provence, Toulon et Marseille . 
 Plus tard, engagé en Algérie, il attrape comme tant de ses camarades une « fièvre maligne » ; il invente alors une mixture à base de zestes d’orange, de quinquina et de gentiane macérés dans de l’eau-de-vie présentant des propriétés fébrifuges et désaltérantes. Bientôt, il approvisionne toute l’armée française sur l’ordre du Général Valée (1773-1846). 
 Il créa sa propre distillerie à Philippeville (aujourd’hui Skikda) en 1832, et s’ensuivit une multiplication des distilleries : Bône et Alger. Il améliore sa formule et la commercialise, à partir de 1837, comme apéritif sous le nom d’Amer Algérien (ou Africain). 
